--- a/ComcastCRMGUIFramework/TestData/TestScript.xlsx
+++ b/ComcastCRMGUIFramework/TestData/TestScript.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sanpri\eclipse-workspace\ComcastCRMGUIFramework\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8B8A6F-5B7B-407C-83AC-C71C1B5ACE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{04978542-D9DD-4864-9C5E-BB982250880E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{03B1768F-A65D-4E05-A06C-BA30D6A4EBE1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{03B1768F-A65D-4E05-A06C-BA30D6A4EBE1}"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
@@ -19,6 +14,7 @@
     <sheet name="contact" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A8:P26"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -876,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29154786-74BB-45F0-B021-EDBA3638A84E}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1350,7 +1346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F217789F-1892-493C-99A2-238A7995D437}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
